--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3837CE-1F16-4221-8885-5C080087F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E55464-F054-4F95-8524-6B0CAA53BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -305,20 +305,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,9 +318,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC758D3-310D-45D5-A949-415E3C8FF0B9}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,15 +672,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="21">
         <v>45283</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -774,10 +768,10 @@
       <c r="D9">
         <v>9509525321</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -799,18 +793,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="21">
         <v>45286</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -828,7 +822,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -844,7 +838,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -854,38 +848,38 @@
         <v>9839829368</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16">
         <v>8840701578</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17">
         <v>9918401801</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -896,21 +890,24 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="6">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18">
         <v>9140599262</v>
       </c>
       <c r="E18">
         <v>8299143043</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="19" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -940,210 +937,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>45285</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13">
         <v>8565956477</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>45286</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13">
         <v>9140620377</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E55464-F054-4F95-8524-6B0CAA53BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743714FF-1423-4E64-BDCF-D1486975815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>requirement corner plot</t>
+  </si>
+  <si>
+    <t>still in delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call back krenge </t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -323,6 +329,8 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC758D3-310D-45D5-A949-415E3C8FF0B9}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="132" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,10 +659,10 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -671,7 +679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>45283</v>
       </c>
@@ -681,8 +689,11 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="22">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -696,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -710,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -727,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -741,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -758,7 +769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -775,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -792,7 +803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>45286</v>
       </c>
@@ -803,7 +814,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -821,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -832,12 +843,17 @@
         <v>9416400890</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -855,7 +871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -907,7 +923,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="3"/>
+      <c r="E21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -921,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0AD5E4-12A1-4E65-B082-43B2128D3F0A}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,10 +949,11 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -958,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -967,8 +984,11 @@
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="22">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1011,8 +1034,11 @@
       <c r="H4" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1022,7 +1048,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1032,7 +1058,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1042,7 +1068,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1052,7 +1078,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1062,7 +1088,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1072,7 +1098,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1082,7 +1108,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1092,7 +1118,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1102,7 +1128,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1112,7 +1138,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1122,7 +1148,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>

--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743714FF-1423-4E64-BDCF-D1486975815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA3700-AA86-4A07-83D7-E22100A1A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t xml:space="preserve">call back krenge </t>
+  </si>
+  <si>
+    <t>plot only</t>
+  </si>
+  <si>
+    <t>bhar hi abhi bhi</t>
   </si>
 </sst>
 </file>
@@ -296,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -326,11 +332,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC758D3-310D-45D5-A949-415E3C8FF0B9}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="132" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +667,7 @@
     <col min="8" max="8" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -679,21 +684,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
         <v>45283</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21">
         <v>45287</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -707,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -721,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -737,8 +742,11 @@
       <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -752,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -769,7 +777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -786,7 +794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -803,18 +811,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>45286</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -832,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -852,8 +860,11 @@
       <c r="H14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -871,7 +882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -921,9 +932,6 @@
       <c r="G18" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -940,7 +948,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +992,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <v>45287</v>
       </c>
     </row>

--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA3700-AA86-4A07-83D7-E22100A1A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A978A1F-4145-49B4-8FC7-5995AA3CCF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>bhar hi abhi bhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swapnil </t>
+  </si>
+  <si>
+    <t>Surendra Gautam</t>
+  </si>
+  <si>
+    <t>interested</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +259,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,11 +333,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC758D3-310D-45D5-A949-415E3C8FF0B9}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,16 +690,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>45283</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20">
         <v>45287</v>
       </c>
     </row>
@@ -812,15 +817,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>45286</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -878,7 +883,7 @@
       <c r="F15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -929,14 +934,54 @@
       <c r="E18">
         <v>8299143043</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="7" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>45292</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>8090091091</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>9436383438</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -948,7 +993,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +1037,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>45287</v>
       </c>
     </row>

--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A978A1F-4145-49B4-8FC7-5995AA3CCF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2478C-1482-4D72-B440-989BF79E8A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -177,9 +177,6 @@
     <t>plot only</t>
   </si>
   <si>
-    <t>bhar hi abhi bhi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swapnil </t>
   </si>
   <si>
@@ -187,6 +184,27 @@
   </si>
   <si>
     <t>interested</t>
+  </si>
+  <si>
+    <t>Abhishek mishra</t>
+  </si>
+  <si>
+    <t>call back</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>still busy</t>
+  </si>
+  <si>
+    <t>currently in delhi</t>
+  </si>
+  <si>
+    <t>not picking up 4/1/24</t>
+  </si>
+  <si>
+    <t>bhar hi abhi bhi(27-12-2023)</t>
   </si>
 </sst>
 </file>
@@ -305,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -337,9 +355,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC758D3-310D-45D5-A949-415E3C8FF0B9}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="141" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +684,7 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="8" max="9" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -699,9 +714,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="20">
-        <v>45287</v>
-      </c>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -748,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -904,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>5</v>
       </c>
@@ -920,8 +933,11 @@
       <c r="G17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -938,7 +954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>45292</v>
       </c>
@@ -949,39 +965,85 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>8090091091</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>9436383438</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>45295</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
       </c>
+      <c r="D25">
+        <v>7727804007</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>8095673246</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -990,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0AD5E4-12A1-4E65-B082-43B2128D3F0A}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,9 +1066,10 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="25.21875" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1040,8 +1103,11 @@
       <c r="I2" s="20">
         <v>45287</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="20">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1066,7 +1132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1090,8 +1156,11 @@
       <c r="I4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1101,7 +1170,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1111,7 +1180,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1121,7 +1190,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1131,7 +1200,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1141,7 +1210,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1151,7 +1220,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1161,7 +1230,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1171,7 +1240,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1181,7 +1250,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1191,7 +1260,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1201,7 +1270,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>

--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2478C-1482-4D72-B440-989BF79E8A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12A091-F405-4083-9A55-FFE8A2AA85C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -206,6 +206,87 @@
   <si>
     <t>bhar hi abhi bhi(27-12-2023)</t>
   </si>
+  <si>
+    <t>may visit tomorrow 7/1/24</t>
+  </si>
+  <si>
+    <t>february me visit krenge</t>
+  </si>
+  <si>
+    <t>Anil kumar mishra(father)</t>
+  </si>
+  <si>
+    <t>Saurabh shukla</t>
+  </si>
+  <si>
+    <t>not interested</t>
+  </si>
+  <si>
+    <t>rajani khand side</t>
+  </si>
+  <si>
+    <t>visited site 8-1-24</t>
+  </si>
+  <si>
+    <t>visited</t>
+  </si>
+  <si>
+    <t>contacted 10-1-24 (call back krenge)</t>
+  </si>
+  <si>
+    <t>Geeta Dixit</t>
+  </si>
+  <si>
+    <t>Vivek Kumar</t>
+  </si>
+  <si>
+    <t>Puneet Arora</t>
+  </si>
+  <si>
+    <t>may be 25-1-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kal 4 bje </t>
+  </si>
+  <si>
+    <t>Praveen k mishra</t>
+  </si>
+  <si>
+    <t>currently in banglore may shift to lko in april</t>
+  </si>
+  <si>
+    <t>Mohan Lal</t>
+  </si>
+  <si>
+    <t>kal call krna</t>
+  </si>
+  <si>
+    <t>didn’t picked</t>
+  </si>
+  <si>
+    <t>may visit on Sunday</t>
+  </si>
+  <si>
+    <t>18-1-24 phone nhi uthaye</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>family visit 26-1-24</t>
+  </si>
+  <si>
+    <t>Divyjot Singh Arora</t>
+  </si>
+  <si>
+    <t>Kunal Saxena</t>
+  </si>
+  <si>
+    <t>Raibrely Road</t>
+  </si>
+  <si>
+    <t>Akhilendra Mishra</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +311,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,18 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,18 +361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,26 +407,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,9 +429,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,54 +758,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC758D3-310D-45D5-A949-415E3C8FF0B9}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="141" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="141" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="9" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="23">
         <v>45283</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -726,12 +817,12 @@
       <c r="D4">
         <v>9305296004</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -740,12 +831,12 @@
       <c r="D5">
         <v>9004877457</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -754,10 +845,10 @@
       <c r="D6">
         <v>7970521280</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
@@ -765,7 +856,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -774,12 +865,12 @@
       <c r="D7">
         <v>9455016874</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -788,15 +879,15 @@
       <c r="D8">
         <v>8188874160</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -805,15 +896,15 @@
       <c r="D9">
         <v>9509525321</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -822,86 +913,86 @@
       <c r="D10">
         <v>8726294211</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="23">
         <v>45286</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>8795441999</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>9416400890</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>9839829368</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -910,15 +1001,15 @@
       <c r="D16">
         <v>8840701578</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>5</v>
       </c>
       <c r="B17" t="s">
@@ -927,18 +1018,18 @@
       <c r="D17">
         <v>9918401801</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>6</v>
       </c>
       <c r="B18" t="s">
@@ -950,23 +1041,29 @@
       <c r="E18">
         <v>8299143043</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="H18" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>45292</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -975,12 +1072,15 @@
       <c r="D21">
         <v>8090091091</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>2</v>
       </c>
       <c r="B22" t="s">
@@ -989,40 +1089,58 @@
       <c r="D22">
         <v>9436383438</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
         <v>45295</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D25">
         <v>7727804007</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25">
+        <v>9415798063</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26" t="s">
@@ -1031,19 +1149,197 @@
       <c r="D26">
         <v>8095673246</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="H26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>7355502218</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>45307</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30">
+        <v>8192889885</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="21">
+        <v>971522570032</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>9044590394</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>7892165972</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>7307131328</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>45312</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>8858962342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38">
+        <v>7741014413</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>9927326145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1052,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0AD5E4-12A1-4E65-B082-43B2128D3F0A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,90 +1363,97 @@
     <col min="8" max="8" width="25.21875" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="20">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="13">
         <v>45287</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="13">
         <v>44930</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="K2" s="13">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>45285</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
         <v>8565956477</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>45286</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>9140620377</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
@@ -1159,136 +1462,139 @@
       <c r="J4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12A091-F405-4083-9A55-FFE8A2AA85C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D66B9-E935-4CD0-AB9D-8E003C800338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="magicbricks" sheetId="1" r:id="rId1"/>
-    <sheet name="olx" sheetId="2" r:id="rId2"/>
+    <sheet name="99acres" sheetId="3" r:id="rId2"/>
+    <sheet name="olx" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -287,6 +288,108 @@
   <si>
     <t>Akhilendra Mishra</t>
   </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>Prajjwal Kasaudhan</t>
+  </si>
+  <si>
+    <t>friday visit</t>
+  </si>
+  <si>
+    <t>Ankit bajpai</t>
+  </si>
+  <si>
+    <t>visited 23/1/24</t>
+  </si>
+  <si>
+    <t>Gaurav Singh</t>
+  </si>
+  <si>
+    <t>27 ko call krna hai</t>
+  </si>
+  <si>
+    <t>baat ho gyi hai parents k saath aayenge</t>
+  </si>
+  <si>
+    <t>will contact back 25/1</t>
+  </si>
+  <si>
+    <t>still in delhi no plan to come</t>
+  </si>
+  <si>
+    <t>didn’t respond</t>
+  </si>
+  <si>
+    <t>Vartika Shrivastva</t>
+  </si>
+  <si>
+    <t>Monika Shukla</t>
+  </si>
+  <si>
+    <t>Sunil Kumar</t>
+  </si>
+  <si>
+    <t>didn’t pick</t>
+  </si>
+  <si>
+    <t>Navneet k Yadav</t>
+  </si>
+  <si>
+    <t>Md Faiz</t>
+  </si>
+  <si>
+    <t>Paritosh Singh</t>
+  </si>
+  <si>
+    <t>RK Singh</t>
+  </si>
+  <si>
+    <t>Kumar Pankaj</t>
+  </si>
+  <si>
+    <t>Govind Singh</t>
+  </si>
+  <si>
+    <t>call after 2pm</t>
+  </si>
+  <si>
+    <t>photos shared</t>
+  </si>
+  <si>
+    <t>switched off</t>
+  </si>
+  <si>
+    <t>29 ko call krna hai</t>
+  </si>
+  <si>
+    <t>Akhil tondon</t>
+  </si>
+  <si>
+    <t>went back</t>
+  </si>
+  <si>
+    <t>utha nhi rhe</t>
+  </si>
+  <si>
+    <t>currently in prayaraj (uncle ji se baat hui)</t>
+  </si>
+  <si>
+    <t>didn’t pick 28/1</t>
+  </si>
+  <si>
+    <t>didn’t pick 28/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need park </t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +437,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -441,7 +550,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC758D3-310D-45D5-A949-415E3C8FF0B9}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="141" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,9 +885,9 @@
     <col min="1" max="1" width="8.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
     <col min="8" max="8" width="25.44140625" customWidth="1"/>
     <col min="9" max="9" width="32.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
@@ -791,20 +907,20 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="25">
         <v>45283</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -921,15 +1037,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="A12" s="25">
         <v>45286</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1008,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -1028,7 +1144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -1051,18 +1167,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>45292</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1079,7 +1195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -1096,19 +1212,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
         <v>45295</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>1</v>
       </c>
       <c r="B25" t="s">
@@ -1138,8 +1254,14 @@
       <c r="K25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -1162,7 +1284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -1176,18 +1298,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
         <v>45307</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1207,7 +1329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1227,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -1283,15 +1405,15 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="25">
         <v>45312</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -1303,6 +1425,12 @@
       <c r="D37">
         <v>8858962342</v>
       </c>
+      <c r="F37" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -1316,6 +1444,9 @@
       </c>
       <c r="F38" s="17" t="s">
         <v>41</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1347,11 +1478,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2448ED-5C1A-4933-BD5E-520D799A9BDB}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="163" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>7080340904</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>8303770783</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>7880470840</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>9792094088</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>7380762173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>6263517991</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9">
+        <v>9984175677</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>7985167475</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>8076337228</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>7355218662</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13">
+        <v>9451305319</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>7652012412</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15">
+        <v>9313750019</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0AD5E4-12A1-4E65-B082-43B2128D3F0A}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,9 +1740,10 @@
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1407,7 +1784,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1434,8 +1811,11 @@
       <c r="K3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1466,7 +1846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1476,7 +1856,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1486,7 +1866,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1496,7 +1876,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1506,7 +1886,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1516,7 +1896,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1526,7 +1906,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1536,7 +1916,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1546,7 +1926,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1556,7 +1936,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1566,7 +1946,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1576,7 +1956,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>

--- a/magicbricks response1.xlsx
+++ b/magicbricks response1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D66B9-E935-4CD0-AB9D-8E003C800338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B83A7B-B9FE-4FDD-9E7E-288B07BEF257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CA904765-A6EB-4D08-99D2-A0899FE69BB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -376,9 +376,6 @@
     <t>went back</t>
   </si>
   <si>
-    <t>utha nhi rhe</t>
-  </si>
-  <si>
     <t>currently in prayaraj (uncle ji se baat hui)</t>
   </si>
   <si>
@@ -389,6 +386,18 @@
   </si>
   <si>
     <t xml:space="preserve">need park </t>
+  </si>
+  <si>
+    <t>Ranjana</t>
+  </si>
+  <si>
+    <t>before manish yadav gate</t>
+  </si>
+  <si>
+    <t>utha nhi rhe 29/1</t>
+  </si>
+  <si>
+    <t>shushant golf city</t>
   </si>
 </sst>
 </file>
@@ -554,10 +563,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,15 +921,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <v>45283</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1037,15 +1046,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <v>45286</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1168,15 +1177,15 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="26">
         <v>45292</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1213,18 +1222,18 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="26">
         <v>45295</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
@@ -1299,15 +1308,15 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="26">
         <v>45307</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -1405,15 +1414,15 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
+      <c r="A36" s="26">
         <v>45312</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -1479,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2448ED-5C1A-4933-BD5E-520D799A9BDB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="163" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,7 +1556,7 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1567,7 +1576,7 @@
         <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,7 +1607,7 @@
         <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1615,7 +1624,7 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1632,7 +1641,7 @@
         <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1648,6 +1657,9 @@
       <c r="F10" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1704,6 +1716,12 @@
       <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="G14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -1714,6 +1732,23 @@
       </c>
       <c r="D15">
         <v>9313750019</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>8932048954</v>
       </c>
     </row>
   </sheetData>
